--- a/app/static/example_data/embrace-plus_calendar_small.xlsx
+++ b/app/static/example_data/embrace-plus_calendar_small.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veerlevanleemput/Documents/Hypebright BV/Fivoor/wearalyze/app/static/example_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711EAF98-4D3C-1C41-BAA0-F440612F652C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA4B6C8-0559-7E45-A7D4-BD2ADEC80C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12040" yWindow="2860" windowWidth="27640" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37460" yWindow="4300" windowWidth="27640" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -448,10 +448,10 @@
         <v>45118</v>
       </c>
       <c r="B2" s="2">
-        <v>0.32291666666666669</v>
+        <v>0.40902777777777777</v>
       </c>
       <c r="C2" s="2">
-        <v>0.3263888888888889</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -465,10 +465,10 @@
         <v>45118</v>
       </c>
       <c r="B3" s="2">
-        <v>0.3263888888888889</v>
+        <v>0.41111111111111115</v>
       </c>
       <c r="C3" s="2">
-        <v>0.3298611111111111</v>
+        <v>0.41319444444444442</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -482,10 +482,10 @@
         <v>45118</v>
       </c>
       <c r="B4" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C4" s="2">
-        <v>0.33402777777777781</v>
+        <v>0.41736111111111113</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>

--- a/app/static/example_data/embrace-plus_calendar_small.xlsx
+++ b/app/static/example_data/embrace-plus_calendar_small.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veerlevanleemput/Documents/Hypebright BV/Fivoor/wearalyze/app/static/example_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA4B6C8-0559-7E45-A7D4-BD2ADEC80C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2298CCE-4109-894B-A361-5F666684B016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37460" yWindow="4300" windowWidth="27640" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Spilled hot tea</t>
+  </si>
+  <si>
+    <t>Watching TV</t>
   </si>
 </sst>
 </file>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -494,6 +497,23 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>45118</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/static/example_data/embrace-plus_calendar_small.xlsx
+++ b/app/static/example_data/embrace-plus_calendar_small.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veerlevanleemput/Documents/Hypebright BV/Fivoor/wearalyze/app/static/example_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Projecten\Wearables comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2298CCE-4109-894B-A361-5F666684B016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC60303-FF3F-4FB0-AA56-76B208158EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37460" yWindow="4300" windowWidth="27640" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -48,19 +48,34 @@
     <t>lightgreen</t>
   </si>
   <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>Cleaning up</t>
-  </si>
-  <si>
-    <t>Walking up stairs</t>
-  </si>
-  <si>
-    <t>Spilled hot tea</t>
-  </si>
-  <si>
-    <t>Watching TV</t>
+    <t>bisque</t>
+  </si>
+  <si>
+    <t>aliceblue</t>
+  </si>
+  <si>
+    <t>lightsalmon</t>
+  </si>
+  <si>
+    <t>Walk stairs</t>
+  </si>
+  <si>
+    <t>Bike inside</t>
+  </si>
+  <si>
+    <t>Sit funny</t>
+  </si>
+  <si>
+    <t>Sit sad</t>
+  </si>
+  <si>
+    <t>Stand</t>
+  </si>
+  <si>
+    <t>Walk small living room</t>
+  </si>
+  <si>
+    <t>Meditate</t>
   </si>
 </sst>
 </file>
@@ -107,13 +122,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -415,28 +431,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="82.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -446,72 +462,123 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>45118</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.40902777777777777</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.40972222222222227</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>45009</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.4670138888888889</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.47187499999999999</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45009</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.47187499999999999</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.47673611111111108</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>45009</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.47673611111111108</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.48159722222222223</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>45009</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.48159722222222223</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.48645833333333338</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>45118</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.41111111111111115</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.41319444444444442</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>45009</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.48645833333333338</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.49131944444444442</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>45009</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.49131944444444442</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.49618055555555557</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>45118</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.41736111111111113</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>45009</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.49618055555555557</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.50104166666666672</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>45118</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -527,7 +594,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -539,7 +606,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
